--- a/output/bivariate/women/early_bf_bivariate_diff.xlsx
+++ b/output/bivariate/women/early_bf_bivariate_diff.xlsx
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="6">
